--- a/25时序分析.xlsx
+++ b/25时序分析.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{8B131D89-8010-4CE3-B0D2-09B47805EB7A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>mem19198</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,13 +122,75 @@
   </si>
   <si>
     <t>写入第19行数据；向PE写出数据流（ctr_word=0xf）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收第1组数据b(i+m,j+n)和a(i,j)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收16个sum值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较出最小sum值，即mad值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收第2组数据b(i+m,j+n)和a(i,j),PE组输出第1个sum值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收第3组数据b(i+m,j+n)和a(i,j),PE组输出第2个sum值</t>
+  </si>
+  <si>
+    <t>接收第4组数据b(i+m,j+n)和a(i,j),PE组输出第3个sum值</t>
+  </si>
+  <si>
+    <t>接收第5组数据b(i+m,j+n)和a(i,j),PE组输出第4个sum值</t>
+  </si>
+  <si>
+    <t>接收第6组数据b(i+m,j+n)和a(i,j),PE组输出第5个sum值</t>
+  </si>
+  <si>
+    <t>接收第7组数据b(i+m,j+n)和a(i,j),PE组输出第6个sum值</t>
+  </si>
+  <si>
+    <t>接收第8组数据b(i+m,j+n)和a(i,j),PE组输出第7个sum值</t>
+  </si>
+  <si>
+    <t>接收第9组数据b(i+m,j+n)和a(i,j),PE组输出第8个sum值</t>
+  </si>
+  <si>
+    <t>接收第10组数据b(i+m,j+n)和a(i,j),PE组输出第9个sum值</t>
+  </si>
+  <si>
+    <t>接收第11组数据b(i+m,j+n)和a(i,j),PE组输出第10个sum值</t>
+  </si>
+  <si>
+    <t>接收第12组数据b(i+m,j+n)和a(i,j),PE组输出第11个sum值</t>
+  </si>
+  <si>
+    <t>接收第13组数据b(i+m,j+n)和a(i,j),PE组输出第12个sum值</t>
+  </si>
+  <si>
+    <t>接收第14组数据b(i+m,j+n)和a(i,j),PE组输出第13个sum值</t>
+  </si>
+  <si>
+    <t>接收第15组数据b(i+m,j+n)和a(i,j),PE组输出第14个sum值</t>
+  </si>
+  <si>
+    <t>接收第16组数据b(i+m,j+n)和a(i,j),PE组输出第15个sum值</t>
+  </si>
+  <si>
+    <t>PE组（16个PE）输出第16个sum值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -184,7 +247,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -259,6 +322,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -294,6 +374,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,20 +566,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="86.125" customWidth="1"/>
-    <col min="3" max="6" width="50.625" customWidth="1"/>
+    <col min="2" max="2" width="86.109375" customWidth="1"/>
+    <col min="3" max="5" width="50.6640625" customWidth="1"/>
+    <col min="6" max="6" width="59.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -507,7 +605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -515,7 +613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -523,7 +621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -531,7 +629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -539,7 +637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -547,7 +645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -555,7 +653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -563,7 +661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -573,8 +671,11 @@
       <c r="D10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -584,8 +685,11 @@
       <c r="D11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -595,8 +699,11 @@
       <c r="D12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -606,8 +713,11 @@
       <c r="D13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -617,8 +727,11 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -628,8 +741,11 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -639,8 +755,11 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -650,8 +769,11 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -661,8 +783,11 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -672,8 +797,11 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -683,8 +811,11 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -694,8 +825,11 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -705,8 +839,11 @@
       <c r="D22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -716,8 +853,11 @@
       <c r="D23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -727,8 +867,11 @@
       <c r="D24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -738,10 +881,24 @@
       <c r="D25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
